--- a/data/experience.xlsx
+++ b/data/experience.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chonlapat/Documents/cv_timeline/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chonlapat/Documents/cv_timeline/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBDAF15-8751-CF49-97DA-1F0F9A5C7E62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18DAEED-1EE7-2C4E-8121-347B75732C3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{35D74B36-773D-F246-89AE-BCE777707C4B}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>End</t>
   </si>
   <si>
-    <t>BSc in Information Enginerring</t>
-  </si>
-  <si>
     <t>King Mongkut's Institute of Technology Ladkrabang</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>Data Scientist</t>
   </si>
   <si>
-    <t>Central Technology Organization</t>
-  </si>
-  <si>
     <t>Work Experience</t>
   </si>
   <si>
@@ -74,13 +68,19 @@
     <t>Techjam 2019 Final Round Competitor</t>
   </si>
   <si>
-    <t>Kasikorn Business-Technology Group</t>
-  </si>
-  <si>
     <t>Home Hackathon 2019 Competitor</t>
   </si>
   <si>
     <t>Chula-HOME dot TECH</t>
+  </si>
+  <si>
+    <t>KBTG</t>
+  </si>
+  <si>
+    <t>Central Tech</t>
+  </si>
+  <si>
+    <t>BEng in Information Engineering</t>
   </si>
 </sst>
 </file>
@@ -88,7 +88,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -127,9 +127,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,7 +447,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,13 +477,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
       </c>
       <c r="D2" s="1">
         <v>41852</v>
@@ -494,13 +494,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
       </c>
       <c r="D3" s="1">
         <v>43252</v>
@@ -508,30 +508,36 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
         <v>43799</v>
+      </c>
+      <c r="E4" s="1">
+        <v>43800</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1">
         <v>43701</v>
+      </c>
+      <c r="E5" s="1">
+        <v>43708</v>
       </c>
     </row>
   </sheetData>

--- a/data/experience.xlsx
+++ b/data/experience.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chonlapat/Documents/cv_timeline/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18DAEED-1EE7-2C4E-8121-347B75732C3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9ED2C2E-B433-F844-BD69-F37D70AC1A10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{35D74B36-773D-F246-89AE-BCE777707C4B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Role</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>BEng in Information Engineering</t>
+  </si>
+  <si>
+    <t>We Can Code Teens Can Code #1</t>
   </si>
 </sst>
 </file>
@@ -444,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000DB280-142B-CE4E-865B-D2AD76D798A4}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -508,36 +511,53 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1">
-        <v>43799</v>
+        <v>43701</v>
       </c>
       <c r="E4" s="1">
-        <v>43800</v>
+        <v>43708</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="1">
-        <v>43701</v>
+        <v>43799</v>
       </c>
       <c r="E5" s="1">
-        <v>43708</v>
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43904</v>
+      </c>
+      <c r="E6" s="1">
+        <v>43904</v>
       </c>
     </row>
   </sheetData>
